--- a/src/analysis_examples/circadb/results_lomb/cosinor_10503222_chd7_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10503222_chd7_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20903438820138742, 0.3393218143472154]</t>
+          <t>[0.21071324558173188, 0.33764295696687097]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.891612644300267e-08</v>
+        <v>1.221124734662737e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.891612644300267e-08</v>
+        <v>1.221124734662737e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, -0.44026323473730766]</t>
+          <t>[-0.9056843686024632, -0.4528421843012307]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.241951888614651e-06</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>7.241951888614651e-06</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="S2" t="n">
         <v>0.544904017886681</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5118941971520803, 0.5779138386212817]</t>
+          <t>[0.5119164914160927, 0.5778915443572692]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.544864864864923</v>
       </c>
       <c r="X2" t="n">
-        <v>1.649449449449485</v>
+        <v>1.696576576576613</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.440280280280361</v>
+        <v>3.393153153153233</v>
       </c>
     </row>
   </sheetData>
